--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a932848912ec977c/Desktop/Jira Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7B07A63-3C7E-4894-A605-F92A72FD7383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B7B07A63-3C7E-4894-A605-F92A72FD7383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EBAD155-ABA6-4B78-801B-E01873BD2BA8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test cases" sheetId="1" r:id="rId1"/>
@@ -1639,7 +1639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1957,7 +1957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2072,6 +2072,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2117,8 +2132,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2473,6851 +2489,6854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I236"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>357651</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
         <v>463021</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>367678</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
         <v>463021</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>353667</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>463021</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>346162</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>463021</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>374635</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
         <v>463021</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>358733</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
         <v>463020</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>339026</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
         <v>462962</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>341219</v>
       </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
         <v>462962</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>339648</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
         <v>462962</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>369431</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
         <v>462811</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>373919</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
         <v>462811</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>358888</v>
       </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
         <v>462811</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>358777</v>
       </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
         <v>462811</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>355928</v>
       </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
         <v>462962</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>373594</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
         <v>462811</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>350103</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
         <v>462962</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>363257</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
         <v>462962</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>363292</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
         <v>462962</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>369972</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
         <v>462962</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>363254</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
         <v>462962</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>358969</v>
       </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
         <v>462962</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>363256</v>
       </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1">
         <v>462962</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>376863</v>
       </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
         <v>462811</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>374733</v>
       </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1">
         <v>462811</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>374336</v>
       </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
         <v>462811</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>374910</v>
       </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1">
         <v>463346</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>361984</v>
       </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1">
         <v>462883</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>360973</v>
       </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
         <v>462883</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>359495</v>
       </c>
-      <c r="D30" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
         <v>462883</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>359730</v>
       </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="1">
         <v>462883</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>354817</v>
       </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="1">
         <v>462962</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>372521</v>
       </c>
-      <c r="D33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="1">
         <v>462962</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>363255</v>
       </c>
-      <c r="D34" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
         <v>462962</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>355135</v>
       </c>
-      <c r="D35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1">
         <v>462962</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>361869</v>
       </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
         <v>462962</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>357741</v>
       </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1">
         <v>462811</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>356707</v>
       </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="1">
         <v>462811</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>339674</v>
       </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1">
         <v>462587</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>201857</v>
       </c>
-      <c r="D40" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1">
         <v>199622</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>190546</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1">
         <v>198753</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="G41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>203290</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>198753</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>358923</v>
       </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1">
         <v>463021</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>357968</v>
       </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="1">
         <v>463021</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>357110</v>
       </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1">
         <v>463021</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>359789</v>
       </c>
-      <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1">
         <v>463021</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>218403</v>
       </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>299106</v>
       </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>256645</v>
       </c>
-      <c r="D49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>268902</v>
       </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>278340</v>
       </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G51" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>303241</v>
       </c>
-      <c r="D52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="1">
         <v>462811</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G52" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>300321</v>
       </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1">
         <v>462502</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>300356</v>
       </c>
-      <c r="D54" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1">
         <v>462502</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>269551</v>
       </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>251685</v>
       </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>214730</v>
       </c>
-      <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>327176</v>
       </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1">
         <v>453003</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>240792</v>
       </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>202778</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>199622</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G60" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>304190</v>
       </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1">
         <v>462502</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>291617</v>
       </c>
-      <c r="D62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>290437</v>
       </c>
-      <c r="D63" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>321773</v>
       </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1">
         <v>457361</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>202993</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>199622</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G65" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" t="s">
-        <v>57</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="G65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>256423</v>
       </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1">
         <v>461631</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>218421</v>
       </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>218412</v>
       </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>327492</v>
       </c>
-      <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
         <v>181463</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G69" t="s">
-        <v>57</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>191902</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>407699</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G70" t="s">
-        <v>57</v>
-      </c>
-      <c r="H70" t="s">
-        <v>57</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="G70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>325707</v>
       </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1">
         <v>181463</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="G71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>325783</v>
       </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72">
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1">
         <v>181463</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="G72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>337960</v>
       </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>323132</v>
       </c>
-      <c r="D74" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74">
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1">
         <v>181463</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G74" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="G74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>298555</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>462502</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G75" t="s">
-        <v>57</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="G75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>273831</v>
       </c>
-      <c r="D76" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76">
+      <c r="D76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="1">
         <v>462502</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>353962</v>
       </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G77" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="G77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>251329</v>
       </c>
-      <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>246871</v>
       </c>
-      <c r="D79" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="G79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>296410</v>
       </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>294004</v>
       </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>303846</v>
       </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="G82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>294204</v>
       </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G83" t="s">
-        <v>57</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="G83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>297810</v>
       </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>203000</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>199622</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G85" t="s">
-        <v>11</v>
-      </c>
-      <c r="H85" t="s">
-        <v>57</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>264030</v>
       </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>188282</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>406803</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G87" t="s">
-        <v>57</v>
-      </c>
-      <c r="H87" t="s">
-        <v>57</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>366498</v>
       </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
+      <c r="D88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="1">
         <v>463021</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="G88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>343486</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>370476</v>
       </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90">
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1">
         <v>463020</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>301579</v>
       </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G91" t="s">
-        <v>57</v>
-      </c>
-      <c r="H91" t="s">
+      <c r="G91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>268016</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G92" t="s">
-        <v>57</v>
-      </c>
-      <c r="H92" t="s">
-        <v>57</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="G92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>337722</v>
       </c>
-      <c r="D93" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>313526</v>
       </c>
-      <c r="D94" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="D94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="G94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>290840</v>
       </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1">
         <v>407699</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G95" t="s">
-        <v>57</v>
-      </c>
-      <c r="H95" t="s">
-        <v>57</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>247307</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>198999</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="G96" t="s">
-        <v>57</v>
-      </c>
-      <c r="H96" t="s">
-        <v>57</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="G96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>308334</v>
       </c>
-      <c r="D97" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>267171</v>
       </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>270479</v>
       </c>
-      <c r="D99" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>270474</v>
       </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>302244</v>
       </c>
-      <c r="D101" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101">
+      <c r="D101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1">
         <v>462502</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>304329</v>
       </c>
-      <c r="D102" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102">
+      <c r="D102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="1">
         <v>462587</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>310761</v>
       </c>
-      <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103">
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1">
         <v>462587</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G103" t="s">
-        <v>11</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="G103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>300288</v>
       </c>
-      <c r="D104" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104">
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1">
         <v>462587</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="G104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>301519</v>
       </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105">
+      <c r="D105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1">
         <v>462587</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="G105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>322934</v>
       </c>
-      <c r="D106" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" s="1">
         <v>453003</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G106" t="s">
-        <v>57</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="G106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>324150</v>
       </c>
-      <c r="D107" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107">
+      <c r="D107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1">
         <v>453003</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G107" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>321473</v>
       </c>
-      <c r="D108" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108">
+      <c r="D108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1">
         <v>453003</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G108" t="s">
-        <v>11</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="G108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>322315</v>
       </c>
-      <c r="D109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109">
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1">
         <v>181463</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" t="s">
+      <c r="G109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>249363</v>
       </c>
-      <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="G110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>273512</v>
       </c>
-      <c r="D111" t="s">
-        <v>9</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="G111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>273668</v>
       </c>
-      <c r="D112" t="s">
-        <v>9</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="1">
         <v>462587</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="G112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>241084</v>
       </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
+      <c r="G113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>308332</v>
       </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
+      <c r="G114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>304565</v>
       </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1">
         <v>462502</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>234586</v>
       </c>
-      <c r="D116" t="s">
-        <v>9</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>309082</v>
       </c>
-      <c r="D117" t="s">
-        <v>9</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="D117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
+      <c r="G117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>301610</v>
       </c>
-      <c r="D118" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1">
         <v>462502</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>243852</v>
       </c>
-      <c r="D119" t="s">
-        <v>9</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1">
         <v>461631</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
+      <c r="G119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>210327</v>
       </c>
-      <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D120" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="G120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>257009</v>
       </c>
-      <c r="D121" t="s">
-        <v>9</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1">
         <v>461631</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>254390</v>
       </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="1">
         <v>461631</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="G122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>255564</v>
       </c>
-      <c r="D123" t="s">
-        <v>9</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="1">
         <v>461631</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>253882</v>
       </c>
-      <c r="D124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G124" t="s">
-        <v>57</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="G124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>274096</v>
       </c>
-      <c r="D125" t="s">
-        <v>9</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="1">
         <v>461631</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G125" t="s">
-        <v>57</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="G125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>279465</v>
       </c>
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="1">
         <v>461631</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G126" t="s">
-        <v>57</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="G126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>304408</v>
       </c>
-      <c r="D127" t="s">
-        <v>9</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="1">
         <v>462811</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G127" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="G127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I127" t="s">
+      <c r="I127" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>257583</v>
       </c>
-      <c r="D128" t="s">
-        <v>9</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G128" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" t="s">
+      <c r="G128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>299111</v>
       </c>
-      <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>256168</v>
       </c>
-      <c r="D130" t="s">
-        <v>9</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G130" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" t="s">
+      <c r="G130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>298920</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G131" t="s">
-        <v>57</v>
-      </c>
-      <c r="H131" t="s">
+      <c r="G131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I131" t="s">
+      <c r="I131" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>335520</v>
       </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132">
+      <c r="D132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="1">
         <v>462962</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G132" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" t="s">
+      <c r="G132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>290424</v>
       </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I133" t="s">
+      <c r="I133" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>323654</v>
       </c>
-      <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134">
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1">
         <v>401206</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G134" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" t="s">
+      <c r="G134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>308333</v>
       </c>
-      <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G135" t="s">
-        <v>11</v>
-      </c>
-      <c r="H135" t="s">
+      <c r="G135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I135" t="s">
+      <c r="I135" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>318713</v>
       </c>
-      <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G136" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="G136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>190860</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>198753</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G137" t="s">
-        <v>57</v>
-      </c>
-      <c r="H137" t="s">
-        <v>57</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="G137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>321478</v>
       </c>
-      <c r="D138" t="s">
-        <v>9</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="1">
         <v>453003</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G138" t="s">
-        <v>11</v>
-      </c>
-      <c r="H138" t="s">
+      <c r="G138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I138" t="s">
+      <c r="I138" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>294860</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>453003</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G139" t="s">
-        <v>11</v>
-      </c>
-      <c r="H139" t="s">
-        <v>57</v>
-      </c>
-      <c r="I139" t="s">
+      <c r="G139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>304057</v>
       </c>
-      <c r="D140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140">
+      <c r="D140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1">
         <v>452730</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G140" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" t="s">
+      <c r="G140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>301719</v>
       </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G141" t="s">
-        <v>11</v>
-      </c>
-      <c r="H141" t="s">
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>247123</v>
       </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H142" t="s">
+      <c r="G142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I142" t="s">
+      <c r="I142" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>319685</v>
       </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
+      <c r="G143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>325428</v>
       </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="1">
         <v>453003</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="G144" t="s">
-        <v>57</v>
-      </c>
-      <c r="H144" t="s">
+      <c r="G144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I144" t="s">
+      <c r="I144" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>324691</v>
       </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="1">
         <v>453003</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G145" t="s">
-        <v>57</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="G145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H145" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I145" t="s">
+      <c r="I145" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>294930</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <v>407699</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G146" t="s">
-        <v>57</v>
-      </c>
-      <c r="H146" t="s">
-        <v>57</v>
-      </c>
-      <c r="I146" t="s">
+      <c r="G146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>290843</v>
       </c>
-      <c r="D147" t="s">
-        <v>9</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="1">
         <v>407699</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G147" t="s">
-        <v>57</v>
-      </c>
-      <c r="H147" t="s">
-        <v>57</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="G147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>213342</v>
       </c>
-      <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G148" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" t="s">
+      <c r="G148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>219659</v>
       </c>
-      <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H149" t="s">
+      <c r="G149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>326022</v>
       </c>
-      <c r="D150" t="s">
-        <v>9</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" s="1">
         <v>181463</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G150" t="s">
-        <v>11</v>
-      </c>
-      <c r="H150" t="s">
+      <c r="G150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>218399</v>
       </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D151" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G151" t="s">
-        <v>11</v>
-      </c>
-      <c r="H151" t="s">
+      <c r="G151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>320872</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <v>462587</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>298829</v>
       </c>
-      <c r="D153" t="s">
-        <v>9</v>
-      </c>
-      <c r="E153">
+      <c r="D153" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="1">
         <v>462587</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="G153" t="s">
-        <v>11</v>
-      </c>
-      <c r="H153" t="s">
+      <c r="G153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>297634</v>
       </c>
-      <c r="D154" t="s">
-        <v>9</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1">
         <v>462587</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G154" t="s">
-        <v>11</v>
-      </c>
-      <c r="H154" t="s">
+      <c r="G154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>300665</v>
       </c>
-      <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="1">
         <v>462502</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G155" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" t="s">
+      <c r="G155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>322082</v>
       </c>
-      <c r="D156" t="s">
-        <v>9</v>
-      </c>
-      <c r="E156">
+      <c r="D156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="1">
         <v>453003</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="G156" t="s">
-        <v>57</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="G156" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H156" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I156" t="s">
+      <c r="I156" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>246321</v>
       </c>
-      <c r="D157" t="s">
-        <v>9</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="1">
         <v>461632</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G157" t="s">
-        <v>11</v>
-      </c>
-      <c r="H157" t="s">
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>298818</v>
       </c>
-      <c r="D158" t="s">
-        <v>9</v>
-      </c>
-      <c r="E158">
+      <c r="D158" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="1">
         <v>462811</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G158" t="s">
-        <v>57</v>
-      </c>
-      <c r="H158" t="s">
+      <c r="G158" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="I158" t="s">
+      <c r="I158" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>219695</v>
       </c>
-      <c r="D159" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D159" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="G159" t="s">
-        <v>11</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="G159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>218452</v>
       </c>
-      <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G160" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="G160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I160" t="s">
+      <c r="I160" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>202590</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>199622</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G161" t="s">
-        <v>57</v>
-      </c>
-      <c r="H161" t="s">
-        <v>57</v>
-      </c>
-      <c r="I161" t="s">
+      <c r="G161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I161" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>202265</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>199622</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G162" t="s">
-        <v>57</v>
-      </c>
-      <c r="H162" t="s">
-        <v>57</v>
-      </c>
-      <c r="I162" t="s">
+      <c r="G162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I162" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>321728</v>
       </c>
-      <c r="D163" t="s">
-        <v>9</v>
-      </c>
-      <c r="E163">
+      <c r="D163" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="1">
         <v>453003</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G163" t="s">
-        <v>57</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="G163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H163" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I163" t="s">
+      <c r="I163" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>321901</v>
       </c>
-      <c r="D164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E164">
+      <c r="D164" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="1">
         <v>453003</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G164" t="s">
-        <v>57</v>
-      </c>
-      <c r="H164" t="s">
+      <c r="G164" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H164" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I164" t="s">
+      <c r="I164" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>357010</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>407699</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G165" t="s">
-        <v>57</v>
-      </c>
-      <c r="H165" t="s">
-        <v>57</v>
-      </c>
-      <c r="I165" t="s">
+      <c r="G165" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I165" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>294770</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="1">
         <v>181463</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G166" t="s">
-        <v>11</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="G166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I166" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>180862</v>
       </c>
-      <c r="D167" t="s">
-        <v>9</v>
-      </c>
-      <c r="E167">
+      <c r="D167" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="1">
         <v>452730</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G167" t="s">
-        <v>57</v>
-      </c>
-      <c r="H167" t="s">
-        <v>57</v>
-      </c>
-      <c r="I167" t="s">
+      <c r="G167" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I167" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>228015</v>
       </c>
-      <c r="D168" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="1">
         <v>461632</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="G168" t="s">
-        <v>11</v>
-      </c>
-      <c r="H168" t="s">
+      <c r="G168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="I168" t="s">
+      <c r="I168" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>246835</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <v>407699</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="G169" t="s">
-        <v>57</v>
-      </c>
-      <c r="H169" t="s">
-        <v>57</v>
-      </c>
-      <c r="I169" t="s">
+      <c r="G169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I169" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>268019</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G170" t="s">
-        <v>57</v>
-      </c>
-      <c r="H170" t="s">
-        <v>57</v>
-      </c>
-      <c r="I170" t="s">
+      <c r="G170" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I170" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>312028</v>
       </c>
-      <c r="D171" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171">
+      <c r="D171" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="1">
         <v>462587</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G171" t="s">
-        <v>57</v>
-      </c>
-      <c r="H171" t="s">
+      <c r="G171" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H171" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I171" t="s">
+      <c r="I171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>303240</v>
       </c>
-      <c r="D172" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172">
+      <c r="D172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="1">
         <v>462587</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G172" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" t="s">
+      <c r="G172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I172" t="s">
+      <c r="I172" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>292755</v>
       </c>
-      <c r="D173" t="s">
-        <v>9</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="1">
         <v>462587</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G173" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" t="s">
+      <c r="G173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I173" t="s">
+      <c r="I173" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>249629</v>
       </c>
-      <c r="D174" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="1">
         <v>461632</v>
       </c>
-      <c r="F174" t="s">
+      <c r="F174" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G174" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="G174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I174" t="s">
+      <c r="I174" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>295014</v>
       </c>
-      <c r="D175" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="1">
         <v>462587</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G175" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" t="s">
+      <c r="G175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I175" t="s">
+      <c r="I175" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>352304</v>
       </c>
-      <c r="D176" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176">
+      <c r="D176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="1">
         <v>462587</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I176" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>249001</v>
       </c>
-      <c r="D177" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177">
+      <c r="D177" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="1">
         <v>461632</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G177" t="s">
-        <v>11</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="G177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I177" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>337348</v>
       </c>
-      <c r="D178" t="s">
-        <v>9</v>
-      </c>
-      <c r="E178">
+      <c r="D178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="1">
         <v>453003</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G178" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="G178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>306534</v>
       </c>
-      <c r="D179" t="s">
-        <v>9</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="1">
         <v>462502</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I179" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>324956</v>
       </c>
-      <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180">
+      <c r="D180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="1">
         <v>453003</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G180" t="s">
-        <v>57</v>
-      </c>
-      <c r="H180" t="s">
+      <c r="G180" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>250587</v>
       </c>
-      <c r="D181" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="1">
         <v>461587</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G181" t="s">
-        <v>11</v>
-      </c>
-      <c r="H181" t="s">
+      <c r="G181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I181" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>289606</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>453003</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G182" t="s">
-        <v>11</v>
-      </c>
-      <c r="H182" t="s">
-        <v>57</v>
-      </c>
-      <c r="I182" t="s">
+      <c r="G182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I182" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>204163</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <v>406803</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G183" t="s">
-        <v>57</v>
-      </c>
-      <c r="H183" t="s">
-        <v>57</v>
-      </c>
-      <c r="I183" t="s">
+      <c r="G183" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I183" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>170182</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G184" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" t="s">
-        <v>57</v>
-      </c>
-      <c r="I184" t="s">
+      <c r="G184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I184" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>250520</v>
       </c>
-      <c r="D185" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="D185" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F185" t="s">
+      <c r="F185" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G185" t="s">
-        <v>11</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="G185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>294179</v>
       </c>
-      <c r="D186" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="D186" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H186" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I186" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>242365</v>
       </c>
-      <c r="D187" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="D187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G187" t="s">
-        <v>11</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="G187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>306214</v>
       </c>
-      <c r="D188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="D188" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>320808</v>
       </c>
-      <c r="D189" t="s">
-        <v>9</v>
-      </c>
-      <c r="E189">
+      <c r="D189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="1">
         <v>462587</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>240793</v>
       </c>
-      <c r="D190" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="D190" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G190" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="G190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>223380</v>
       </c>
-      <c r="D191" t="s">
-        <v>9</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="D191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G191" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" t="s">
+      <c r="G191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>265697</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <v>407699</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="G192" t="s">
-        <v>57</v>
-      </c>
-      <c r="H192" t="s">
-        <v>57</v>
-      </c>
-      <c r="I192" t="s">
+      <c r="G192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I192" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>255864</v>
       </c>
-      <c r="D193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="D193" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>256426</v>
       </c>
-      <c r="D194" t="s">
-        <v>9</v>
-      </c>
-      <c r="E194">
+      <c r="D194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="1">
         <v>461631</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H194" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I194" t="s">
+      <c r="I194" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>254425</v>
       </c>
-      <c r="D195" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="D195" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I195" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>300276</v>
       </c>
-      <c r="D196" t="s">
-        <v>9</v>
-      </c>
-      <c r="E196">
+      <c r="D196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="1">
         <v>462587</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G196" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" t="s">
+      <c r="G196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I196" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>211906</v>
       </c>
-      <c r="D197" t="s">
-        <v>9</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="D197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G197" t="s">
-        <v>11</v>
-      </c>
-      <c r="H197" t="s">
+      <c r="G197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I197" t="s">
+      <c r="I197" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>278605</v>
       </c>
-      <c r="D198" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198">
+      <c r="D198" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="1">
         <v>462587</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G198" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" t="s">
+      <c r="G198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>300259</v>
       </c>
-      <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="1">
         <v>462587</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G199" t="s">
-        <v>11</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="G199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>290779</v>
       </c>
-      <c r="D200" t="s">
-        <v>9</v>
-      </c>
-      <c r="E200">
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1">
         <v>462587</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G200" t="s">
-        <v>57</v>
-      </c>
-      <c r="H200" t="s">
+      <c r="G200" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>290421</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="1">
         <v>462587</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="G201" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" t="s">
+      <c r="G201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>300482</v>
       </c>
-      <c r="D202" t="s">
-        <v>9</v>
-      </c>
-      <c r="E202">
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="1">
         <v>462502</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="G202" t="s">
-        <v>11</v>
-      </c>
-      <c r="H202" t="s">
+      <c r="G202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>262215</v>
       </c>
-      <c r="D203" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G203" t="s">
-        <v>57</v>
-      </c>
-      <c r="H203" t="s">
+      <c r="G203" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>335787</v>
       </c>
-      <c r="D204" t="s">
-        <v>9</v>
-      </c>
-      <c r="E204">
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="1">
         <v>453003</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="G204" t="s">
-        <v>57</v>
-      </c>
-      <c r="H204" t="s">
+      <c r="G204" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>322714</v>
       </c>
-      <c r="D205" t="s">
-        <v>9</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="D205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G205" t="s">
-        <v>11</v>
-      </c>
-      <c r="H205" t="s">
+      <c r="G205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>322703</v>
       </c>
-      <c r="D206" t="s">
-        <v>9</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="D206" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G206" t="s">
-        <v>11</v>
-      </c>
-      <c r="H206" t="s">
+      <c r="G206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>308337</v>
       </c>
-      <c r="D207" t="s">
-        <v>9</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="G207" t="s">
-        <v>11</v>
-      </c>
-      <c r="H207" t="s">
+      <c r="G207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>322539</v>
       </c>
-      <c r="D208" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208">
+      <c r="D208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="1">
         <v>452730</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G208" t="s">
-        <v>57</v>
-      </c>
-      <c r="H208" t="s">
+      <c r="G208" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>188755</v>
       </c>
-      <c r="D209" t="s">
-        <v>9</v>
-      </c>
-      <c r="E209">
+      <c r="D209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1">
         <v>198999</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G209" t="s">
-        <v>57</v>
-      </c>
-      <c r="H209" t="s">
-        <v>57</v>
-      </c>
-      <c r="I209" t="s">
+      <c r="G209" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I209" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>270998</v>
       </c>
-      <c r="D210" t="s">
-        <v>9</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="D210" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H210" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>300270</v>
       </c>
-      <c r="D211" t="s">
-        <v>9</v>
-      </c>
-      <c r="E211">
+      <c r="D211" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1">
         <v>407699</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G211" t="s">
-        <v>57</v>
-      </c>
-      <c r="H211" t="s">
-        <v>57</v>
-      </c>
-      <c r="I211" t="s">
+      <c r="G211" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I211" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>300731</v>
       </c>
-      <c r="D212" t="s">
-        <v>9</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>349308</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <v>198999</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G213" t="s">
-        <v>57</v>
-      </c>
-      <c r="H213" t="s">
-        <v>57</v>
-      </c>
-      <c r="I213" t="s">
+      <c r="G213" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I213" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>251912</v>
       </c>
-      <c r="D214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="D214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G214" t="s">
-        <v>11</v>
-      </c>
-      <c r="H214" t="s">
+      <c r="G214" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I214" t="s">
+      <c r="I214" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>224829</v>
       </c>
-      <c r="D215" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215">
+      <c r="D215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="1">
         <v>461632</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G215" t="s">
-        <v>11</v>
-      </c>
-      <c r="H215" t="s">
+      <c r="G215" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="I215" t="s">
+      <c r="I215" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>373603</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <v>407699</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G216" t="s">
-        <v>57</v>
-      </c>
-      <c r="H216" t="s">
-        <v>57</v>
-      </c>
-      <c r="I216" t="s">
+      <c r="G216" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I216" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>308748</v>
       </c>
-      <c r="D217" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217">
+      <c r="D217" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1">
         <v>452730</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="G217" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" t="s">
+      <c r="G217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I217" t="s">
+      <c r="I217" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>350186</v>
       </c>
-      <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218">
+      <c r="D218" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" s="1">
         <v>462587</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I218" t="s">
+      <c r="I218" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>298535</v>
       </c>
-      <c r="D219" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219">
+      <c r="D219" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1">
         <v>462587</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="G219" t="s">
-        <v>11</v>
-      </c>
-      <c r="H219" t="s">
+      <c r="G219" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>355421</v>
       </c>
-      <c r="D220" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220">
+      <c r="D220" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" s="1">
         <v>463020</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="G220" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" t="s">
+      <c r="G220" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>354132</v>
       </c>
-      <c r="D221" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221">
+      <c r="D221" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="1">
         <v>462883</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G221" t="s">
-        <v>11</v>
-      </c>
-      <c r="H221" t="s">
+      <c r="G221" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>211375</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <v>407699</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="G222" t="s">
-        <v>57</v>
-      </c>
-      <c r="H222" t="s">
-        <v>57</v>
-      </c>
-      <c r="I222" t="s">
+      <c r="G222" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I222" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>311614</v>
       </c>
-      <c r="D223" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223">
+      <c r="D223" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" s="1">
         <v>407699</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="G223" t="s">
-        <v>57</v>
-      </c>
-      <c r="H223" t="s">
-        <v>57</v>
-      </c>
-      <c r="I223" t="s">
+      <c r="G223" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I223" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>195597</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="1">
         <v>407699</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G224" t="s">
-        <v>57</v>
-      </c>
-      <c r="H224" t="s">
-        <v>57</v>
-      </c>
-      <c r="I224" t="s">
+      <c r="G224" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I224" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>337384</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="1">
         <v>407699</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G225" t="s">
-        <v>57</v>
-      </c>
-      <c r="H225" t="s">
-        <v>57</v>
-      </c>
-      <c r="I225" t="s">
+      <c r="G225" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I225" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>315607</v>
       </c>
-      <c r="D226" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226">
+      <c r="D226" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="1">
         <v>407699</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G226" t="s">
-        <v>57</v>
-      </c>
-      <c r="H226" t="s">
-        <v>57</v>
-      </c>
-      <c r="I226" t="s">
+      <c r="G226" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I226" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>300275</v>
       </c>
-      <c r="D227" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227">
+      <c r="D227" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="1">
         <v>407699</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G227" t="s">
-        <v>57</v>
-      </c>
-      <c r="H227" t="s">
-        <v>57</v>
-      </c>
-      <c r="I227" t="s">
+      <c r="G227" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I227" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>213928</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="1">
         <v>407699</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G228" t="s">
-        <v>57</v>
-      </c>
-      <c r="H228" t="s">
-        <v>57</v>
-      </c>
-      <c r="I228" t="s">
+      <c r="G228" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>373763</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="1">
         <v>407699</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="G229" t="s">
-        <v>57</v>
-      </c>
-      <c r="H229" t="s">
-        <v>57</v>
-      </c>
-      <c r="I229" t="s">
+      <c r="G229" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I229" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>358031</v>
       </c>
-      <c r="D230" t="s">
-        <v>9</v>
-      </c>
-      <c r="E230">
+      <c r="D230" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="1">
         <v>462962</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G230" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" t="s">
+      <c r="G230" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>291152</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="1">
         <v>407699</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G231" t="s">
-        <v>57</v>
-      </c>
-      <c r="H231" t="s">
-        <v>57</v>
-      </c>
-      <c r="I231" t="s">
+      <c r="G231" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I231" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>198956</v>
       </c>
-      <c r="D232" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232">
+      <c r="D232" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="1">
         <v>198753</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G232" t="s">
-        <v>57</v>
-      </c>
-      <c r="H232" t="s">
-        <v>57</v>
-      </c>
-      <c r="I232" t="s">
+      <c r="G232" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I232" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>323829</v>
       </c>
-      <c r="D233" t="s">
-        <v>9</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="D233" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="G233" t="s">
-        <v>11</v>
-      </c>
-      <c r="H233" t="s">
+      <c r="G233" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I233" t="s">
+      <c r="I233" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>381901</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="G234" t="s">
-        <v>11</v>
-      </c>
-      <c r="H234" t="s">
+      <c r="G234" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>199531</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="1">
         <v>407699</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="G235" t="s">
-        <v>57</v>
-      </c>
-      <c r="H235" t="s">
-        <v>57</v>
-      </c>
-      <c r="I235" t="s">
+      <c r="G235" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I235" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>173722</v>
       </c>
-      <c r="D236" t="s">
-        <v>9</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="D236" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G236" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" t="s">
-        <v>57</v>
-      </c>
-      <c r="I236" t="s">
+      <c r="G236" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I236" s="1" t="s">
         <v>57</v>
       </c>
     </row>
